--- a/Datarun.xlsx
+++ b/Datarun.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Fan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68598FFA-AE0F-7446-A70A-88F7AEF949BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F315A26C-0AEF-A247-B79B-5C3F7A4E51E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7300" yWindow="500" windowWidth="25080" windowHeight="20500" activeTab="1" xr2:uid="{8B34AEC8-E195-A844-BEE4-F0B9C980B52B}"/>
+    <workbookView xWindow="7300" yWindow="500" windowWidth="25080" windowHeight="20500" activeTab="2" xr2:uid="{8B34AEC8-E195-A844-BEE4-F0B9C980B52B}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4262" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5406" uniqueCount="275">
   <si>
     <t>ID</t>
   </si>
@@ -858,7 +858,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -871,6 +871,13 @@
       <color rgb="FF202124"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -890,6 +897,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -912,7 +931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -920,9 +939,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9907,8 +9929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA730D1-36B2-D749-A13F-0E993A63C357}">
   <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10252,59 +10274,59 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+    <row r="7" spans="1:18" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="10" t="s">
         <v>71</v>
       </c>
     </row>
@@ -15190,502 +15212,4383 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223C0AD0-A9D5-EE48-B57C-101196449673}">
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F94"/>
+    <sheetView tabSelected="1" topLeftCell="I31" workbookViewId="0">
+      <selection activeCell="W66" sqref="W66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="18" max="18" width="23" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I2">
-        <f>1+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="E4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>25</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>26</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="C6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>29</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>30</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="C10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="S11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>32</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>33</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="E13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="S13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>34</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>36</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>37</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="7">
         <v>38</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="B18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="S18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="7">
         <v>39</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="F7" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="F8" s="2" t="s">
+      <c r="B19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="S19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="7">
+        <v>40</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="S20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>41</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="F9" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="F10" s="2" t="s">
+      <c r="B22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="F11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="F12" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="F13" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="F14" s="2" t="s">
+      <c r="E22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="S22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>43</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="R23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="S23">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>44</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="S24">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>45</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>46</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>47</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="R27" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="S27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>48</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="R28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="S28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>49</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="F15" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="F16" s="2" t="s">
+      <c r="E29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="P29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q29" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="R29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="7">
+        <v>50</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q30" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="R30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="S30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>51</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F17" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F18" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F19" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F20" s="2" t="s">
+      <c r="E31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="R31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <v>52</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F21" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F22" s="2" t="s">
+      <c r="E32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>53</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F23" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F24" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F25" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F26" s="2" t="s">
+      <c r="E33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="R33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="S33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>54</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S34">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>55</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="S35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>56</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F27" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F28" s="2" t="s">
+      <c r="E36" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="S36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <v>57</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <v>58</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <v>59</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="S39">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
+        <v>60</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="29" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F29" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F30" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F31" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F32" s="2" t="s">
+      <c r="E40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="S40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <v>61</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F33" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F34" s="2" t="s">
+      <c r="E41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S41">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <v>62</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <v>63</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S43">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
+        <v>64</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S44">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <v>65</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="S45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
+        <v>66</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <v>67</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F35" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F36" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F37" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F38" s="2" t="s">
+      <c r="E47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S47">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
+        <v>68</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S48">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <v>69</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F39" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F40" s="2" t="s">
+      <c r="E49" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
+        <v>70</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S50">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
+        <v>71</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q51" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="R51" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S51">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
+        <v>72</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F41" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F42" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F43" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F44" s="2" t="s">
+      <c r="E52" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="P52" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q52" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="R52" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="S52">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
+        <v>73</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q53" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="R53" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S53">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="7">
+        <v>74</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F45" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F46" s="2" t="s">
+      <c r="E54" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="P54" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="S54">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A55" s="7">
+        <v>75</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="47" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F47" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F48" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F49" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F50" s="2" t="s">
+      <c r="E55" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="P55" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q55" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="R55" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="S55">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A56" s="7">
+        <v>76</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="P56" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q56" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="R56" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="S56">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
+        <v>77</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="51" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F51" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F52" s="2" t="s">
+      <c r="E57" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="P57" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q57" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="R57" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
+        <v>78</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O58" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="P58" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q58" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="R58" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S58">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
+        <v>79</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="P59" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q59" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="R59" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A60" s="7">
+        <v>80</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O60" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P60" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q60" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="R60" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="S60">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A61" s="7">
+        <v>81</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="P61" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q61" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="R61" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S61">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A62" s="7">
+        <v>82</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="53" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F53" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F54" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F55" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F56" s="2" t="s">
+      <c r="E62" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="P62" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q62" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="R62" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A63" s="7">
+        <v>83</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="P63" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q63" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="R63" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A64" s="7">
+        <v>84</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="P64" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q64" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="R64" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A65" s="7">
+        <v>85</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O65" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="P65" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q65" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="R65" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A66" s="7">
+        <v>86</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="57" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F57" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F58" s="2" t="s">
+      <c r="E66" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="P66" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q66" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="R66" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S66">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A67" s="7">
+        <v>87</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O67" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="P67" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q67" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="R67" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S67">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A68" s="7">
+        <v>88</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O68" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="P68" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q68" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="R68" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="S68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A69" s="7">
+        <v>89</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="59" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F59" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F60" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F61" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="62" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F62" s="2" t="s">
+      <c r="E69" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N69" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O69" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="P69" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q69" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="R69" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S69">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A70" s="7">
+        <v>90</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="P70" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q70" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="R70" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S70">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A71" s="7">
+        <v>91</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M71" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N71" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O71" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="P71" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q71" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="R71" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="S71">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A72" s="7">
+        <v>92</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="63" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F63" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F64" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F65" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F66" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="67" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F67" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F68" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F69" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="70" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F70" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F71" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="72" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F72" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="73" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F73" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="74" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F74" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F75" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="76" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F76" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="77" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F77" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="78" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F78" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F79" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="80" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F80" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="E72" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N72" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="O72" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="P72" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q72" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="R72" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S72">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="A73" s="7">
+        <v>93</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M73" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N73" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O73" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="P73" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q73" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="R73" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S73">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+      <c r="F80" s="2"/>
     </row>
     <row r="81" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F81" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="F81" s="2"/>
     </row>
     <row r="82" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F82" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="F82" s="2"/>
     </row>
     <row r="83" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F83" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="F83" s="2"/>
     </row>
     <row r="84" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F84" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="F84" s="2"/>
     </row>
     <row r="85" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F85" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="F85" s="2"/>
     </row>
     <row r="86" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F86" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="F86" s="2"/>
     </row>
     <row r="87" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F87" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="F87" s="2"/>
     </row>
     <row r="88" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F88" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="F88" s="2"/>
     </row>
     <row r="89" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F89" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="F89" s="2"/>
     </row>
     <row r="90" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F90" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="F90" s="2"/>
     </row>
     <row r="91" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F91" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="F91" s="2"/>
     </row>
     <row r="92" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F92" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="F92" s="2"/>
     </row>
     <row r="93" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F93" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="F93" s="2"/>
     </row>
     <row r="94" spans="6:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="F94" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="F94" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Datarun.xlsx
+++ b/Datarun.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/Fan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F315A26C-0AEF-A247-B79B-5C3F7A4E51E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF037E6-5603-A44D-82D2-A68E4A5D1660}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7300" yWindow="500" windowWidth="25080" windowHeight="20500" activeTab="2" xr2:uid="{8B34AEC8-E195-A844-BEE4-F0B9C980B52B}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5406" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5406" uniqueCount="276">
   <si>
     <t>ID</t>
   </si>
@@ -852,13 +852,16 @@
   </si>
   <si>
     <t>Không tiếp nhận sản phẩm nghệ thuật nào từ nghệ sĩ đó nữa</t>
+  </si>
+  <si>
+    <t>//*[@id="i88"]/div[3]/div</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -910,6 +913,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -931,7 +946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -945,6 +960,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15214,73 +15232,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223C0AD0-A9D5-EE48-B57C-101196449673}">
   <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I31" workbookViewId="0">
-      <selection activeCell="W66" sqref="W66"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="18" max="18" width="23" customWidth="1"/>
+    <col min="1" max="6" width="10.83203125" style="11"/>
+    <col min="7" max="7" width="33" style="11" customWidth="1"/>
+    <col min="8" max="8" width="80.6640625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="11"/>
+    <col min="10" max="10" width="24.5" style="11" customWidth="1"/>
+    <col min="11" max="17" width="10.83203125" style="11"/>
+    <col min="18" max="18" width="23" style="11" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+    <row r="2" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
         <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -15301,45 +15326,45 @@
       <c r="G2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="S2">
+      <c r="R2" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2" s="11">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+    <row r="3" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
         <v>23</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -15360,45 +15385,45 @@
       <c r="G3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="R3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="S3">
+      <c r="R3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" s="11">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+    <row r="4" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
         <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -15419,45 +15444,45 @@
       <c r="G4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
+    <row r="5" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
         <v>25</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -15478,45 +15503,45 @@
       <c r="G5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="11">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
+    <row r="6" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
         <v>26</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -15537,45 +15562,45 @@
       <c r="G6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="11">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+    <row r="7" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
         <v>27</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -15596,45 +15621,45 @@
       <c r="G7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="J7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="11">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
+    <row r="8" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
         <v>28</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -15655,45 +15680,45 @@
       <c r="G8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="P8" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="R8" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="11">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
+    <row r="9" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
         <v>29</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -15714,45 +15739,45 @@
       <c r="G9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="7">
+    <row r="10" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
         <v>30</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -15773,45 +15798,45 @@
       <c r="G10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="R10" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="11">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="7">
+    <row r="11" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="13">
         <v>31</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -15832,45 +15857,45 @@
       <c r="G11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="7">
+    <row r="12" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
         <v>32</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -15891,45 +15916,45 @@
       <c r="G12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="P12" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="Q12" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="R12" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="11">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="7">
+    <row r="13" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
         <v>33</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -15950,45 +15975,45 @@
       <c r="G13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="R13" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="7">
+    <row r="14" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
         <v>34</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -16007,47 +16032,47 @@
         <v>50</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="P14" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="R14" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="S14">
+      <c r="R14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="S14" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
+    <row r="15" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
         <v>35</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -16068,45 +16093,45 @@
       <c r="G15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K15" s="5" t="s">
+      <c r="J15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="P15" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="R15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="S15">
+      <c r="R15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="S15" s="11">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
+    <row r="16" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
         <v>36</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -16127,45 +16152,45 @@
       <c r="G16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O16" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="P16" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="Q16" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="R16" s="5" t="s">
+      <c r="R16" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
+    <row r="17" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="13">
         <v>37</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -16186,45 +16211,45 @@
       <c r="G17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="O17" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="P17" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="Q17" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="R17" s="5" t="s">
+      <c r="R17" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="11">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
+    <row r="18" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
         <v>38</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -16245,45 +16270,45 @@
       <c r="G18" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N18" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="O18" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="P18" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q18" s="5" t="s">
+      <c r="Q18" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="R18" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
+    <row r="19" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="13">
         <v>39</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -16304,45 +16329,45 @@
       <c r="G19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="M19" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="N19" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="O19" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="P19" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q19" s="5" t="s">
+      <c r="Q19" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="R19" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="11">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="7">
+    <row r="20" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="13">
         <v>40</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -16363,45 +16388,45 @@
       <c r="G20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="N20" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="O20" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="P20" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q20" s="5" t="s">
+      <c r="Q20" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="R20" s="5" t="s">
+      <c r="R20" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="7">
+    <row r="21" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="13">
         <v>41</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -16422,45 +16447,45 @@
       <c r="G21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M21" s="5" t="s">
+      <c r="M21" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="N21" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O21" s="5" t="s">
+      <c r="O21" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="P21" s="5" t="s">
+      <c r="P21" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q21" s="5" t="s">
+      <c r="Q21" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="R21" s="5" t="s">
+      <c r="R21" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="7">
+    <row r="22" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="13">
         <v>42</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -16481,45 +16506,45 @@
       <c r="G22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M22" s="5" t="s">
+      <c r="M22" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="N22" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O22" s="5" t="s">
+      <c r="O22" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="P22" s="5" t="s">
+      <c r="P22" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q22" s="5" t="s">
+      <c r="Q22" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="R22" s="5" t="s">
+      <c r="R22" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="11">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="7">
+    <row r="23" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
         <v>43</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -16540,45 +16565,45 @@
       <c r="G23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L23" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="M23" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="N23" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O23" s="5" t="s">
+      <c r="O23" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="P23" s="5" t="s">
+      <c r="P23" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q23" s="5" t="s">
+      <c r="Q23" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="R23" s="5" t="s">
+      <c r="R23" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="11">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="7">
+    <row r="24" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="13">
         <v>44</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -16599,45 +16624,45 @@
       <c r="G24" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="L24" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="M24" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="N24" s="5" t="s">
+      <c r="N24" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O24" s="5" t="s">
+      <c r="O24" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="P24" s="5" t="s">
+      <c r="P24" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q24" s="5" t="s">
+      <c r="Q24" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="R24" s="5" t="s">
+      <c r="R24" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="11">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="7">
+    <row r="25" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="13">
         <v>45</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -16658,45 +16683,45 @@
       <c r="G25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="L25" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="M25" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="N25" s="5" t="s">
+      <c r="N25" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="O25" s="5" t="s">
+      <c r="O25" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="P25" s="5" t="s">
+      <c r="P25" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q25" s="5" t="s">
+      <c r="Q25" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="R25" s="5" t="s">
+      <c r="R25" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="7">
+    <row r="26" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
         <v>46</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -16717,45 +16742,45 @@
       <c r="G26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K26" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="M26" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="N26" s="5" t="s">
+      <c r="N26" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="O26" s="5" t="s">
+      <c r="O26" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="P26" s="5" t="s">
+      <c r="P26" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q26" s="5" t="s">
+      <c r="Q26" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="R26" s="5" t="s">
+      <c r="R26" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="11">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="7">
+    <row r="27" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="13">
         <v>47</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -16776,45 +16801,45 @@
       <c r="G27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I27" s="5" t="s">
+      <c r="I27" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K27" s="5" t="s">
+      <c r="J27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="M27" s="5" t="s">
+      <c r="M27" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="O27" s="5" t="s">
+      <c r="O27" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="P27" s="5" t="s">
+      <c r="P27" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q27" s="5" t="s">
+      <c r="Q27" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="R27" s="5" t="s">
+      <c r="R27" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="7">
+    <row r="28" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="13">
         <v>48</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -16835,45 +16860,45 @@
       <c r="G28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="K28" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="L28" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="M28" s="5" t="s">
+      <c r="M28" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N28" s="5" t="s">
+      <c r="N28" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="O28" s="5" t="s">
+      <c r="O28" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="P28" s="5" t="s">
+      <c r="P28" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q28" s="5" t="s">
+      <c r="Q28" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="R28" s="5" t="s">
+      <c r="R28" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="7">
+    <row r="29" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="13">
         <v>49</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -16894,45 +16919,45 @@
       <c r="G29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I29" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L29" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M29" s="5" t="s">
+      <c r="M29" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="N29" s="5" t="s">
+      <c r="N29" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O29" s="5" t="s">
+      <c r="O29" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="P29" s="5" t="s">
+      <c r="P29" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q29" s="5" t="s">
+      <c r="Q29" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="R29" s="5" t="s">
+      <c r="R29" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="7">
+    <row r="30" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
         <v>50</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -16953,45 +16978,45 @@
       <c r="G30" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I30" s="5" t="s">
+      <c r="I30" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="K30" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="L30" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M30" s="5" t="s">
+      <c r="M30" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="N30" s="5" t="s">
+      <c r="N30" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O30" s="5" t="s">
+      <c r="O30" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="P30" s="5" t="s">
+      <c r="P30" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q30" s="5" t="s">
+      <c r="Q30" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="R30" s="5" t="s">
+      <c r="R30" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="7">
+    <row r="31" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="13">
         <v>51</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -17012,45 +17037,45 @@
       <c r="G31" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I31" s="5" t="s">
+      <c r="I31" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="K31" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="L31" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="M31" s="5" t="s">
+      <c r="M31" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="N31" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O31" s="5" t="s">
+      <c r="O31" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="P31" s="5" t="s">
+      <c r="P31" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q31" s="5" t="s">
+      <c r="Q31" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="R31" s="5" t="s">
+      <c r="R31" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="7">
+    <row r="32" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="13">
         <v>52</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -17071,45 +17096,45 @@
       <c r="G32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="I32" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K32" s="5" t="s">
+      <c r="J32" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="L32" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M32" s="5" t="s">
+      <c r="M32" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="N32" s="5" t="s">
+      <c r="N32" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O32" s="5" t="s">
+      <c r="O32" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="P32" s="5" t="s">
+      <c r="P32" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q32" s="5" t="s">
+      <c r="Q32" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="R32" s="5" t="s">
+      <c r="R32" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="11">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="7">
+    <row r="33" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="13">
         <v>53</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -17130,45 +17155,45 @@
       <c r="G33" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="L33" s="5" t="s">
+      <c r="L33" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M33" s="5" t="s">
+      <c r="M33" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="N33" s="5" t="s">
+      <c r="N33" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O33" s="5" t="s">
+      <c r="O33" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="P33" s="5" t="s">
+      <c r="P33" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q33" s="5" t="s">
+      <c r="Q33" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="R33" s="5" t="s">
+      <c r="R33" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="S33">
+      <c r="S33" s="11">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="7">
+    <row r="34" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="13">
         <v>54</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -17189,45 +17214,45 @@
       <c r="G34" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="I34" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="K34" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="L34" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M34" s="5" t="s">
+      <c r="M34" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="N34" s="5" t="s">
+      <c r="N34" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O34" s="5" t="s">
+      <c r="O34" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="P34" s="5" t="s">
+      <c r="P34" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q34" s="5" t="s">
+      <c r="Q34" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="R34" s="5" t="s">
+      <c r="R34" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="11">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="7">
+    <row r="35" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="13">
         <v>55</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -17248,45 +17273,45 @@
       <c r="G35" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I35" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="L35" s="5" t="s">
+      <c r="L35" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M35" s="5" t="s">
+      <c r="M35" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="N35" s="5" t="s">
+      <c r="N35" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O35" s="5" t="s">
+      <c r="O35" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="P35" s="5" t="s">
+      <c r="P35" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q35" s="5" t="s">
+      <c r="Q35" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="R35" s="5" t="s">
+      <c r="R35" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="S35">
+      <c r="S35" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+    <row r="36" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="13">
         <v>56</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -17307,45 +17332,45 @@
       <c r="G36" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I36" s="5" t="s">
+      <c r="I36" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="K36" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="L36" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M36" s="5" t="s">
+      <c r="M36" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N36" s="5" t="s">
+      <c r="N36" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="O36" s="5" t="s">
+      <c r="O36" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="P36" s="5" t="s">
+      <c r="P36" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q36" s="5" t="s">
+      <c r="Q36" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="R36" s="5" t="s">
+      <c r="R36" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="S36">
+      <c r="S36" s="11">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="7">
+    <row r="37" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="13">
         <v>57</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -17366,45 +17391,45 @@
       <c r="G37" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I37" s="5" t="s">
+      <c r="I37" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="K37" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="L37" s="5" t="s">
+      <c r="L37" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M37" s="5" t="s">
+      <c r="M37" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="N37" s="5" t="s">
+      <c r="N37" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="O37" s="5" t="s">
+      <c r="O37" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="P37" s="5" t="s">
+      <c r="P37" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q37" s="5" t="s">
+      <c r="Q37" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="R37" s="5" t="s">
+      <c r="R37" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S37">
+      <c r="S37" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="7">
+    <row r="38" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="13">
         <v>58</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -17425,45 +17450,45 @@
       <c r="G38" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L38" s="5" t="s">
+      <c r="L38" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="M38" s="5" t="s">
+      <c r="M38" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="N38" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O38" s="5" t="s">
+      <c r="O38" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="P38" s="5" t="s">
+      <c r="P38" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q38" s="5" t="s">
+      <c r="Q38" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="R38" s="5" t="s">
+      <c r="R38" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="S38">
+      <c r="S38" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
+    <row r="39" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="13">
         <v>59</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -17484,45 +17509,45 @@
       <c r="G39" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I39" s="5" t="s">
+      <c r="I39" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K39" s="5" t="s">
+      <c r="K39" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L39" s="5" t="s">
+      <c r="L39" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="M39" s="5" t="s">
+      <c r="M39" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="N39" s="5" t="s">
+      <c r="N39" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="O39" s="5" t="s">
+      <c r="O39" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="P39" s="5" t="s">
+      <c r="P39" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q39" s="5" t="s">
+      <c r="Q39" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="R39" s="5" t="s">
+      <c r="R39" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="S39">
+      <c r="S39" s="11">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="7">
+    <row r="40" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="13">
         <v>60</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -17543,45 +17568,45 @@
       <c r="G40" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I40" s="5" t="s">
+      <c r="I40" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K40" s="5" t="s">
+      <c r="K40" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="L40" s="5" t="s">
+      <c r="L40" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M40" s="5" t="s">
+      <c r="M40" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N40" s="5" t="s">
+      <c r="N40" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O40" s="5" t="s">
+      <c r="O40" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="P40" s="5" t="s">
+      <c r="P40" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q40" s="5" t="s">
+      <c r="Q40" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="R40" s="5" t="s">
+      <c r="R40" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="S40">
+      <c r="S40" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="7">
+    <row r="41" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="13">
         <v>61</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -17602,45 +17627,45 @@
       <c r="G41" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I41" s="5" t="s">
+      <c r="I41" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="K41" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="L41" s="5" t="s">
+      <c r="L41" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M41" s="5" t="s">
+      <c r="M41" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="N41" s="5" t="s">
+      <c r="N41" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="O41" s="5" t="s">
+      <c r="O41" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="P41" s="5" t="s">
+      <c r="P41" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q41" s="5" t="s">
+      <c r="Q41" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="R41" s="5" t="s">
+      <c r="R41" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S41">
+      <c r="S41" s="11">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="7">
+    <row r="42" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="13">
         <v>62</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -17661,45 +17686,45 @@
       <c r="G42" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I42" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K42" s="5" t="s">
+      <c r="K42" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="L42" s="5" t="s">
+      <c r="L42" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M42" s="5" t="s">
+      <c r="M42" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="N42" s="5" t="s">
+      <c r="N42" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O42" s="5" t="s">
+      <c r="O42" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="P42" s="5" t="s">
+      <c r="P42" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q42" s="5" t="s">
+      <c r="Q42" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="R42" s="5" t="s">
+      <c r="R42" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S42">
+      <c r="S42" s="11">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="7">
+    <row r="43" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="13">
         <v>63</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -17720,45 +17745,45 @@
       <c r="G43" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I43" s="5" t="s">
+      <c r="I43" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J43" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K43" s="5" t="s">
+      <c r="J43" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K43" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="L43" s="5" t="s">
+      <c r="L43" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="O43" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="P43" s="5" t="s">
+      <c r="P43" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q43" s="5" t="s">
+      <c r="Q43" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="R43" s="5" t="s">
+      <c r="R43" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S43">
+      <c r="S43" s="11">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="7">
+    <row r="44" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="13">
         <v>64</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -17777,47 +17802,47 @@
         <v>51</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H44" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="H44" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I44" s="5" t="s">
+      <c r="I44" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K44" s="5" t="s">
+      <c r="K44" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="L44" s="5" t="s">
+      <c r="L44" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M44" s="5" t="s">
+      <c r="M44" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="N44" s="5" t="s">
+      <c r="N44" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O44" s="5" t="s">
+      <c r="O44" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="P44" s="5" t="s">
+      <c r="P44" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q44" s="5" t="s">
+      <c r="Q44" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="R44" s="5" t="s">
+      <c r="R44" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="S44">
+      <c r="S44" s="11">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
+    <row r="45" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="13">
         <v>65</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -17838,45 +17863,45 @@
       <c r="G45" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I45" s="5" t="s">
+      <c r="I45" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K45" s="5" t="s">
+      <c r="K45" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L45" s="5" t="s">
+      <c r="L45" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M45" s="5" t="s">
+      <c r="M45" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="N45" s="5" t="s">
+      <c r="N45" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="O45" s="5" t="s">
+      <c r="O45" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="P45" s="5" t="s">
+      <c r="P45" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q45" s="5" t="s">
+      <c r="Q45" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="R45" s="5" t="s">
+      <c r="R45" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="S45">
+      <c r="S45" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="7">
+    <row r="46" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="13">
         <v>66</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -17897,45 +17922,45 @@
       <c r="G46" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I46" s="5" t="s">
+      <c r="I46" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K46" s="5" t="s">
+      <c r="K46" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="L46" s="5" t="s">
+      <c r="L46" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="M46" s="5" t="s">
+      <c r="M46" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="N46" s="5" t="s">
+      <c r="N46" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="O46" s="5" t="s">
+      <c r="O46" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="P46" s="5" t="s">
+      <c r="P46" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q46" s="5" t="s">
+      <c r="Q46" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="R46" s="5" t="s">
+      <c r="R46" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S46">
+      <c r="S46" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A47" s="7">
+    <row r="47" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="13">
         <v>67</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -17956,45 +17981,45 @@
       <c r="G47" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I47" s="5" t="s">
+      <c r="I47" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K47" s="5" t="s">
+      <c r="K47" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="L47" s="5" t="s">
+      <c r="L47" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M47" s="5" t="s">
+      <c r="M47" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="N47" s="5" t="s">
+      <c r="N47" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O47" s="5" t="s">
+      <c r="O47" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="P47" s="5" t="s">
+      <c r="P47" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q47" s="5" t="s">
+      <c r="Q47" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="R47" s="5" t="s">
+      <c r="R47" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S47">
+      <c r="S47" s="11">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A48" s="7">
+    <row r="48" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="13">
         <v>68</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -18015,45 +18040,45 @@
       <c r="G48" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I48" s="5" t="s">
+      <c r="I48" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K48" s="5" t="s">
+      <c r="K48" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="L48" s="5" t="s">
+      <c r="L48" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="M48" s="5" t="s">
+      <c r="M48" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="N48" s="5" t="s">
+      <c r="N48" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O48" s="5" t="s">
+      <c r="O48" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="P48" s="5" t="s">
+      <c r="P48" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q48" s="5" t="s">
+      <c r="Q48" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="R48" s="5" t="s">
+      <c r="R48" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S48">
+      <c r="S48" s="11">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="7">
+    <row r="49" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="13">
         <v>69</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -18074,45 +18099,45 @@
       <c r="G49" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I49" s="5" t="s">
+      <c r="I49" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K49" s="5" t="s">
+      <c r="K49" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L49" s="5" t="s">
+      <c r="L49" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M49" s="5" t="s">
+      <c r="M49" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="N49" s="5" t="s">
+      <c r="N49" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="O49" s="5" t="s">
+      <c r="O49" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="P49" s="5" t="s">
+      <c r="P49" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q49" s="5" t="s">
+      <c r="Q49" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="R49" s="5" t="s">
+      <c r="R49" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="S49">
+      <c r="S49" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A50" s="7">
+    <row r="50" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="13">
         <v>70</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -18133,45 +18158,45 @@
       <c r="G50" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I50" s="5" t="s">
+      <c r="I50" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J50" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K50" s="5" t="s">
+      <c r="K50" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="L50" s="5" t="s">
+      <c r="L50" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M50" s="5" t="s">
+      <c r="M50" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="N50" s="5" t="s">
+      <c r="N50" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="O50" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="P50" s="5" t="s">
+      <c r="P50" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q50" s="5" t="s">
+      <c r="Q50" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="R50" s="5" t="s">
+      <c r="R50" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S50">
+      <c r="S50" s="11">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="7">
+    <row r="51" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="13">
         <v>71</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -18190,47 +18215,47 @@
         <v>48</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H51" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="H51" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I51" s="5" t="s">
+      <c r="I51" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J51" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K51" s="5" t="s">
+      <c r="K51" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L51" s="5" t="s">
+      <c r="L51" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="M51" s="5" t="s">
+      <c r="M51" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="N51" s="5" t="s">
+      <c r="N51" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="O51" s="5" t="s">
+      <c r="O51" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="P51" s="5" t="s">
+      <c r="P51" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q51" s="5" t="s">
+      <c r="Q51" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="R51" s="5" t="s">
+      <c r="R51" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="S51">
+      <c r="S51" s="11">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="7">
+    <row r="52" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" s="13">
         <v>72</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -18251,45 +18276,45 @@
       <c r="G52" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I52" s="5" t="s">
+      <c r="I52" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K52" s="5" t="s">
+      <c r="K52" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="L52" s="5" t="s">
+      <c r="L52" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M52" s="5" t="s">
+      <c r="M52" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N52" s="5" t="s">
+      <c r="N52" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O52" s="5" t="s">
+      <c r="O52" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="P52" s="5" t="s">
+      <c r="P52" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q52" s="5" t="s">
+      <c r="Q52" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="R52" s="5" t="s">
+      <c r="R52" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="S52">
+      <c r="S52" s="11">
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A53" s="7">
+    <row r="53" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" s="13">
         <v>73</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -18310,45 +18335,45 @@
       <c r="G53" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I53" s="5" t="s">
+      <c r="I53" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J53" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K53" s="5" t="s">
+      <c r="K53" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="L53" s="5" t="s">
+      <c r="L53" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M53" s="5" t="s">
+      <c r="M53" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="N53" s="5" t="s">
+      <c r="N53" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="O53" s="5" t="s">
+      <c r="O53" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="P53" s="5" t="s">
+      <c r="P53" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q53" s="5" t="s">
+      <c r="Q53" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="R53" s="5" t="s">
+      <c r="R53" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S53">
+      <c r="S53" s="11">
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A54" s="7">
+    <row r="54" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="13">
         <v>74</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -18369,45 +18394,45 @@
       <c r="G54" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I54" s="5" t="s">
+      <c r="I54" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K54" s="5" t="s">
+      <c r="K54" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="L54" s="5" t="s">
+      <c r="L54" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M54" s="5" t="s">
+      <c r="M54" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N54" s="5" t="s">
+      <c r="N54" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="O54" s="5" t="s">
+      <c r="O54" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="P54" s="5" t="s">
+      <c r="P54" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q54" s="5" t="s">
+      <c r="Q54" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="R54" s="5" t="s">
+      <c r="R54" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="S54">
+      <c r="S54" s="11">
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A55" s="7">
+    <row r="55" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A55" s="13">
         <v>75</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -18428,45 +18453,45 @@
       <c r="G55" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H55" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I55" s="5" t="s">
+      <c r="I55" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J55" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K55" s="5" t="s">
+      <c r="K55" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L55" s="5" t="s">
+      <c r="L55" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M55" s="5" t="s">
+      <c r="M55" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="N55" s="5" t="s">
+      <c r="N55" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O55" s="5" t="s">
+      <c r="O55" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="P55" s="5" t="s">
+      <c r="P55" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q55" s="5" t="s">
+      <c r="Q55" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="R55" s="5" t="s">
+      <c r="R55" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="S55">
+      <c r="S55" s="11">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A56" s="7">
+    <row r="56" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A56" s="13">
         <v>76</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -18487,45 +18512,45 @@
       <c r="G56" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I56" s="5" t="s">
+      <c r="I56" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K56" s="5" t="s">
+      <c r="K56" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="L56" s="5" t="s">
+      <c r="L56" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M56" s="5" t="s">
+      <c r="M56" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N56" s="5" t="s">
+      <c r="N56" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="O56" s="5" t="s">
+      <c r="O56" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="P56" s="5" t="s">
+      <c r="P56" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q56" s="5" t="s">
+      <c r="Q56" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="R56" s="5" t="s">
+      <c r="R56" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="S56">
+      <c r="S56" s="11">
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A57" s="7">
+    <row r="57" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A57" s="13">
         <v>77</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -18546,45 +18571,45 @@
       <c r="G57" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="H57" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I57" s="5" t="s">
+      <c r="I57" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J57" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K57" s="5" t="s">
+      <c r="J57" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K57" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="L57" s="5" t="s">
+      <c r="L57" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="M57" s="5" t="s">
+      <c r="M57" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="N57" s="5" t="s">
+      <c r="N57" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="O57" s="5" t="s">
+      <c r="O57" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="P57" s="5" t="s">
+      <c r="P57" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q57" s="5" t="s">
+      <c r="Q57" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="R57" s="5" t="s">
+      <c r="R57" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S57">
+      <c r="S57" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A58" s="7">
+    <row r="58" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A58" s="13">
         <v>78</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -18605,45 +18630,45 @@
       <c r="G58" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="H58" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I58" s="5" t="s">
+      <c r="I58" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K58" s="5" t="s">
+      <c r="K58" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L58" s="5" t="s">
+      <c r="L58" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M58" s="5" t="s">
+      <c r="M58" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="N58" s="5" t="s">
+      <c r="N58" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="O58" s="5" t="s">
+      <c r="O58" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="P58" s="5" t="s">
+      <c r="P58" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q58" s="5" t="s">
+      <c r="Q58" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="R58" s="5" t="s">
+      <c r="R58" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="S58">
+      <c r="S58" s="11">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A59" s="7">
+    <row r="59" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A59" s="13">
         <v>79</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -18664,45 +18689,45 @@
       <c r="G59" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H59" s="5" t="s">
+      <c r="H59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I59" s="5" t="s">
+      <c r="I59" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J59" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K59" s="5" t="s">
+      <c r="K59" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="L59" s="5" t="s">
+      <c r="L59" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M59" s="5" t="s">
+      <c r="M59" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="N59" s="5" t="s">
+      <c r="N59" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O59" s="5" t="s">
+      <c r="O59" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="P59" s="5" t="s">
+      <c r="P59" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q59" s="5" t="s">
+      <c r="Q59" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="R59" s="5" t="s">
+      <c r="R59" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S59">
+      <c r="S59" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A60" s="7">
+    <row r="60" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A60" s="13">
         <v>80</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -18723,45 +18748,45 @@
       <c r="G60" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="H60" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I60" s="5" t="s">
+      <c r="I60" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K60" s="5" t="s">
+      <c r="K60" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="L60" s="5" t="s">
+      <c r="L60" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M60" s="5" t="s">
+      <c r="M60" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N60" s="5" t="s">
+      <c r="N60" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O60" s="5" t="s">
+      <c r="O60" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="P60" s="5" t="s">
+      <c r="P60" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q60" s="5" t="s">
+      <c r="Q60" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="R60" s="5" t="s">
+      <c r="R60" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="S60">
+      <c r="S60" s="11">
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="7">
+    <row r="61" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A61" s="13">
         <v>81</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -18782,45 +18807,45 @@
       <c r="G61" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="H61" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I61" s="5" t="s">
+      <c r="I61" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K61" s="5" t="s">
+      <c r="K61" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="L61" s="5" t="s">
+      <c r="L61" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M61" s="5" t="s">
+      <c r="M61" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="N61" s="5" t="s">
+      <c r="N61" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O61" s="5" t="s">
+      <c r="O61" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="P61" s="5" t="s">
+      <c r="P61" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q61" s="5" t="s">
+      <c r="Q61" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="R61" s="5" t="s">
+      <c r="R61" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="S61">
+      <c r="S61" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A62" s="7">
+    <row r="62" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A62" s="13">
         <v>82</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -18841,45 +18866,45 @@
       <c r="G62" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="H62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I62" s="5" t="s">
+      <c r="I62" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K62" s="5" t="s">
+      <c r="K62" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="L62" s="5" t="s">
+      <c r="L62" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M62" s="5" t="s">
+      <c r="M62" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="N62" s="5" t="s">
+      <c r="N62" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="O62" s="5" t="s">
+      <c r="O62" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="P62" s="5" t="s">
+      <c r="P62" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q62" s="5" t="s">
+      <c r="Q62" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="R62" s="5" t="s">
+      <c r="R62" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S62">
+      <c r="S62" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A63" s="7">
+    <row r="63" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A63" s="13">
         <v>83</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -18900,45 +18925,45 @@
       <c r="G63" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="H63" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I63" s="5" t="s">
+      <c r="I63" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J63" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K63" s="5" t="s">
+      <c r="K63" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="L63" s="5" t="s">
+      <c r="L63" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M63" s="5" t="s">
+      <c r="M63" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="N63" s="5" t="s">
+      <c r="N63" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="O63" s="5" t="s">
+      <c r="O63" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="P63" s="5" t="s">
+      <c r="P63" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q63" s="5" t="s">
+      <c r="Q63" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="R63" s="5" t="s">
+      <c r="R63" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S63">
+      <c r="S63" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A64" s="7">
+    <row r="64" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A64" s="13">
         <v>84</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -18959,45 +18984,45 @@
       <c r="G64" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="H64" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I64" s="5" t="s">
+      <c r="I64" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K64" s="5" t="s">
+      <c r="K64" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L64" s="5" t="s">
+      <c r="L64" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="M64" s="5" t="s">
+      <c r="M64" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="N64" s="5" t="s">
+      <c r="N64" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O64" s="5" t="s">
+      <c r="O64" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="P64" s="5" t="s">
+      <c r="P64" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q64" s="5" t="s">
+      <c r="Q64" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="R64" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="S64">
+      <c r="R64" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="S64" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A65" s="7">
+    <row r="65" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A65" s="13">
         <v>85</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -19018,45 +19043,45 @@
       <c r="G65" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="H65" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I65" s="5" t="s">
+      <c r="I65" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J65" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K65" s="5" t="s">
+      <c r="K65" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="L65" s="5" t="s">
+      <c r="L65" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="M65" s="5" t="s">
+      <c r="M65" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="N65" s="5" t="s">
+      <c r="N65" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="O65" s="5" t="s">
+      <c r="O65" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="P65" s="5" t="s">
+      <c r="P65" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q65" s="5" t="s">
+      <c r="Q65" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="R65" s="5" t="s">
+      <c r="R65" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="S65">
+      <c r="S65" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A66" s="7">
+    <row r="66" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A66" s="13">
         <v>86</v>
       </c>
       <c r="B66" s="4" t="s">
@@ -19075,47 +19100,47 @@
         <v>48</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H66" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="H66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I66" s="5" t="s">
+      <c r="I66" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J66" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K66" s="5" t="s">
+      <c r="J66" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="K66" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="L66" s="5" t="s">
+      <c r="L66" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M66" s="5" t="s">
+      <c r="M66" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="N66" s="5" t="s">
+      <c r="N66" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O66" s="5" t="s">
+      <c r="O66" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="P66" s="5" t="s">
+      <c r="P66" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q66" s="5" t="s">
+      <c r="Q66" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="R66" s="5" t="s">
+      <c r="R66" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S66">
+      <c r="S66" s="11">
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A67" s="7">
+    <row r="67" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A67" s="13">
         <v>87</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -19136,45 +19161,45 @@
       <c r="G67" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="H67" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I67" s="5" t="s">
+      <c r="I67" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J67" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K67" s="5" t="s">
+      <c r="K67" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="L67" s="5" t="s">
+      <c r="L67" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M67" s="5" t="s">
+      <c r="M67" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="N67" s="5" t="s">
+      <c r="N67" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="O67" s="5" t="s">
+      <c r="O67" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="P67" s="5" t="s">
+      <c r="P67" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q67" s="5" t="s">
+      <c r="Q67" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="R67" s="5" t="s">
+      <c r="R67" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S67">
+      <c r="S67" s="11">
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A68" s="7">
+    <row r="68" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A68" s="13">
         <v>88</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -19195,45 +19220,45 @@
       <c r="G68" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H68" s="5" t="s">
+      <c r="H68" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="I68" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K68" s="5" t="s">
+      <c r="K68" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L68" s="5" t="s">
+      <c r="L68" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M68" s="5" t="s">
+      <c r="M68" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N68" s="5" t="s">
+      <c r="N68" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="O68" s="5" t="s">
+      <c r="O68" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="P68" s="5" t="s">
+      <c r="P68" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q68" s="5" t="s">
+      <c r="Q68" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="R68" s="5" t="s">
+      <c r="R68" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="S68">
+      <c r="S68" s="11">
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A69" s="7">
+    <row r="69" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A69" s="13">
         <v>89</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -19254,45 +19279,45 @@
       <c r="G69" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="H69" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I69" s="5" t="s">
+      <c r="I69" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J69" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K69" s="5" t="s">
+      <c r="K69" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L69" s="5" t="s">
+      <c r="L69" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="M69" s="5" t="s">
+      <c r="M69" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="N69" s="5" t="s">
+      <c r="N69" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="O69" s="5" t="s">
+      <c r="O69" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="P69" s="5" t="s">
+      <c r="P69" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q69" s="5" t="s">
+      <c r="Q69" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="R69" s="5" t="s">
+      <c r="R69" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S69">
+      <c r="S69" s="11">
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A70" s="7">
+    <row r="70" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A70" s="13">
         <v>90</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -19313,45 +19338,45 @@
       <c r="G70" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="H70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I70" s="5" t="s">
+      <c r="I70" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K70" s="5" t="s">
+      <c r="K70" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L70" s="5" t="s">
+      <c r="L70" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="M70" s="5" t="s">
+      <c r="M70" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="N70" s="5" t="s">
+      <c r="N70" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="O70" s="5" t="s">
+      <c r="O70" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="P70" s="5" t="s">
+      <c r="P70" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q70" s="5" t="s">
+      <c r="Q70" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="R70" s="5" t="s">
+      <c r="R70" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S70">
+      <c r="S70" s="11">
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A71" s="7">
+    <row r="71" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A71" s="13">
         <v>91</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -19372,45 +19397,45 @@
       <c r="G71" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H71" s="5" t="s">
+      <c r="H71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I71" s="5" t="s">
+      <c r="I71" s="13" t="s">
         <v>61</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K71" s="5" t="s">
+      <c r="K71" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="L71" s="5" t="s">
+      <c r="L71" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M71" s="5" t="s">
+      <c r="M71" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="N71" s="5" t="s">
+      <c r="N71" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="O71" s="5" t="s">
+      <c r="O71" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="P71" s="5" t="s">
+      <c r="P71" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="Q71" s="5" t="s">
+      <c r="Q71" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="R71" s="5" t="s">
+      <c r="R71" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="S71">
+      <c r="S71" s="11">
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A72" s="7">
+    <row r="72" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A72" s="13">
         <v>92</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -19429,47 +19454,47 @@
         <v>48</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H72" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="H72" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I72" s="5" t="s">
+      <c r="I72" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K72" s="5" t="s">
+      <c r="K72" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="L72" s="5" t="s">
+      <c r="L72" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="M72" s="5" t="s">
+      <c r="M72" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="N72" s="5" t="s">
+      <c r="N72" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="O72" s="5" t="s">
+      <c r="O72" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="P72" s="5" t="s">
+      <c r="P72" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q72" s="5" t="s">
+      <c r="Q72" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="R72" s="5" t="s">
+      <c r="R72" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="S72">
+      <c r="S72" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.2">
-      <c r="A73" s="7">
+    <row r="73" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A73" s="13">
         <v>93</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -19490,104 +19515,104 @@
       <c r="G73" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="H73" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="I73" s="5" t="s">
+      <c r="I73" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K73" s="5" t="s">
+      <c r="K73" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="L73" s="5" t="s">
+      <c r="L73" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="M73" s="5" t="s">
+      <c r="M73" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="N73" s="5" t="s">
+      <c r="N73" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="O73" s="5" t="s">
+      <c r="O73" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="P73" s="5" t="s">
+      <c r="P73" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q73" s="5" t="s">
+      <c r="Q73" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="R73" s="5" t="s">
+      <c r="R73" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="S73">
+      <c r="S73" s="11">
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="6:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="81" spans="6:6" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="6:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="82" spans="6:6" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="6:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="83" spans="6:6" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="6:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="84" spans="6:6" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="6:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="85" spans="6:6" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="6:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="86" spans="6:6" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="6:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="87" spans="6:6" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="6:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="88" spans="6:6" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="6:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="89" spans="6:6" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="6:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="90" spans="6:6" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="6:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="91" spans="6:6" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="6:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="92" spans="6:6" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="6:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="93" spans="6:6" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="6:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="94" spans="6:6" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="F94" s="2"/>
     </row>
   </sheetData>
